--- a/InfinityThesisPracticeFast.xlsx
+++ b/InfinityThesisPracticeFast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecb/Desktop/Thesis/ThesisTestFast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BA30973-90D7-BF49-95AA-54FD3A0E7D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ABCD6C-001D-684B-863B-9CC0F1964734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,9 +103,6 @@
     <t>A circle is a shape</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>Dinosaurs are extinct</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>A truck is an animal</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
     <t>Jupiter is the planet we live on</t>
   </si>
   <si>
@@ -134,6 +128,12 @@
   </si>
   <si>
     <t>Humans cannot eat food</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>j</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B11"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -562,79 +562,79 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -650,6 +650,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9F5CAB0486A994CA2C3B13E059EF2AE" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8645ec4a60d0c8c7009d2d6675847a91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="636d7205651659ec4fcda0bcbde9384b">
     <xsd:element name="properties">
@@ -763,22 +778,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF1C174-6AC6-4774-A736-3226A12360E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -792,27 +815,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>